--- a/top_countries_3.xlsx
+++ b/top_countries_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>GDP (current US$)</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>Ease of doing business score (0 = lowest performance to 100 = best performance)</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Singapore</t>
   </si>
 </sst>
 </file>
@@ -380,64 +395,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>23315080560000</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2.054483241786034</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>83.99668</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>1810955871380.98</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2.448967947334511</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>84.00082999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>398303272764.46</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2.068636269538928</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>85.28856</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>396986899888.351</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2.741827932410388</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>86.1981</v>
       </c>
     </row>
